--- a/medicine/Enfance/Bob_Harvey_(illustrateur)/Bob_Harvey_(illustrateur).xlsx
+++ b/medicine/Enfance/Bob_Harvey_(illustrateur)/Bob_Harvey_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Harvey est un auteur et illustrateur de livres pour enfants. En France, il est surtout connu pour avoir illustré des Livres dont vous êtes le héros.
 </t>
@@ -511,7 +523,9 @@
           <t>Ouvrages dont il est l'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Collection Get Inside de Mercury Books (un livre dépliant avec lequel on peut former un cercle), pour les 4-8 ans :
 Get Inside the Sea (2005)  (ISBN 978-1904668930)
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Défis fantastiques (Fighting Fantasy)
-Livres-jeu :
+          <t>Défis fantastiques (Fighting Fantasy)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Livres-jeu :
 (11) Le Talisman de la mort (1984)
 (16) Défis sanglants sur l'océan (1985)
 (19) Les Démons des profondeurs (1986)
@@ -561,27 +580,197 @@
 The Fighting Fantasy 10th Anniversary Yearbook (1992)
 Warlock Magazine
 n°4 (1985)
-n°5 (1985)
-Défis de l'histoire (Adventure Gamebooks)
-Le Trésor des pharaons (1997)
-Les Terres de Légende (Dragon Warriors)
-(1) Le Livre des règles (Dragon Warriors), 1985
+n°5 (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Défis de l'histoire (Adventure Gamebooks)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Trésor des pharaons (1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Terres de Légende (Dragon Warriors)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(1) Le Livre des règles (Dragon Warriors), 1985
 (4) Les Créatures de l'ombre (Out of the Shadows), 1986
-(5) La Puissance des ténèbres (The Power of Darkness), 1986
-Transformers (The Transformers Adventure Game Books)
-(1) La Guerre des robosaures (Dinobot War) (1985)
+(5) La Puissance des ténèbres (The Power of Darkness), 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Transformers (The Transformers Adventure Game Books)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(1) La Guerre des robosaures (Dinobot War) (1985)
 (2) Le Danger vient des étoiles (Peril from the Stars) (1986)
 (5) Swamp of the Scorpion
-(6) Desert of Danger
-La Voie du tigre (The Way of the Tiger)
-La Vengeance du Ninja (Avenger!, 1985)
+(6) Desert of Danger</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La Voie du tigre (The Way of the Tiger)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Vengeance du Ninja (Avenger!, 1985)
 Les Parchemins de Kettsuin (Assassin!, 1985)
 L'Usurpateur d'Irsmun (Usurper , 1985)
 Le Grand Maître d'Irsmun (Overlord!, 1986)
 Les Seigneurs de la Guerre (Warbringer!, 1986)
-Les Démons du Manmarch (Inferno!, 1987)
-Autres livres-jeu
-Collection Starlight Adventures :
+Les Démons du Manmarch (Inferno!, 1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bob_Harvey_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres livres-jeu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Collection Starlight Adventures :
 (2) The Riddle of the Runaway</t>
         </is>
       </c>
